--- a/templates/report_merchant_factoring.xlsx
+++ b/templates/report_merchant_factoring.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">ОТЧЕТ О СОСТОЯНИИ ФАКТОРИНГОВЫХ ПЛАТЕЖЕЙ </t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>${margin}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>${merchant_id}</t>
@@ -636,6 +633,45 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -648,24 +684,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -689,33 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1042,15 +1039,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>173895</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51767</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,7 +1057,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1073,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="219075"/>
-          <a:ext cx="1790700" cy="371475"/>
+          <a:off x="173895" y="228600"/>
+          <a:ext cx="3173522" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,7 +1388,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,11 +1399,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-    </row>
+      <c r="A3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
@@ -1425,201 +1423,201 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="39"/>
+      <c r="C15" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,19 +1674,10 @@
       <c r="A38" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="D40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A2:A3"/>
@@ -1705,6 +1694,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/templates/report_merchant_factoring.xlsx
+++ b/templates/report_merchant_factoring.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -183,12 +183,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,16 +633,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,53 +714,11 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="4"/>
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2 2" xfId="2"/>
     <cellStyle name="Финансовый 2" xfId="3"/>
   </cellStyles>
@@ -766,7 +766,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -799,7 +799,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -826,7 +826,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -859,7 +859,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -891,7 +891,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -950,7 +950,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1039,15 +1039,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>173895</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>403245</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>51767</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1708367</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
+      <xdr:rowOff>1266825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1057,21 +1057,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="173895" y="228600"/>
-          <a:ext cx="3173522" cy="1447800"/>
+          <a:off x="403245" y="390525"/>
+          <a:ext cx="1305122" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,9 +1090,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1136,7 +1130,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1170,7 +1164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1205,10 +1198,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1381,39 +1373,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-    </row>
-    <row r="4" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
+      <c r="A1" s="25"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="25"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="114" customHeight="1">
+      <c r="A4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1421,206 +1418,206 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="48"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="46"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="D27" s="23"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
       <c r="A34" s="20" t="s">
         <v>44</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1657,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1670,17 +1667,24 @@
       <c r="C36" s="17"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="12"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="D40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
@@ -1694,13 +1698,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1712,24 +1709,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/report_merchant_factoring.xlsx
+++ b/templates/report_merchant_factoring.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isa\dev\g_work\CCS.TEST1\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">ОТЧЕТ О СОСТОЯНИИ ФАКТОРИНГОВЫХ ПЛАТЕЖЕЙ </t>
   </si>
@@ -72,12 +77,6 @@
     <t>График</t>
   </si>
   <si>
-    <t>Оплата</t>
-  </si>
-  <si>
-    <t>Вид оплаты</t>
-  </si>
-  <si>
     <t>ИТОГО</t>
   </si>
   <si>
@@ -159,9 +158,6 @@
     <t>${table:t1.paid}</t>
   </si>
   <si>
-    <t>${table:t1.type}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ${total_pending} </t>
   </si>
   <si>
@@ -178,17 +174,32 @@
   </si>
   <si>
     <t>ОБЩАЯ СУММА ЗАДОЛЖЕННОСТИ</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Оплата (процессинг)</t>
+  </si>
+  <si>
+    <t>Оплата по счету</t>
+  </si>
+  <si>
+    <t>${table:t1.paid_amount}</t>
+  </si>
+  <si>
+    <t>${table:t1.paid_amount_later}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -580,6 +591,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -592,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,7 +631,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -624,15 +654,54 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -642,27 +711,12 @@
     <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -687,33 +741,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 5" xfId="4"/>
@@ -722,7 +754,107 @@
     <cellStyle name="Обычный 2 2" xfId="2"/>
     <cellStyle name="Финансовый 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -746,38 +878,6 @@
         </right>
         <top/>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -799,7 +899,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -811,33 +911,6 @@
           <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -859,7 +932,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -871,38 +944,6 @@
           <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -941,6 +982,38 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -950,7 +1023,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1029,6 +1102,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1078,12 +1154,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A33:D35" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowBorderDxfId="8">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Дата" totalsRowLabel="ИТОГО" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="График" totalsRowLabel=" ${total_pending} " dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Оплата" totalsRowLabel=" ${total_paid} " dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Вид оплаты" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A33:E35" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" totalsRowBorderDxfId="9">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Дата" totalsRowLabel="ИТОГО" dataDxfId="8" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="График" totalsRowLabel=" ${total_pending} " dataDxfId="7" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="Итого" totalsRowLabel=" ${total_paid} " dataDxfId="2" totalsRowDxfId="4" dataCellStyle="Денежный"/>
+    <tableColumn id="3" name="Оплата (процессинг)" dataDxfId="1" totalsRowDxfId="3" dataCellStyle="Денежный"/>
+    <tableColumn id="5" name="Оплата по счету" dataDxfId="0" dataCellStyle="Денежный"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1132,7 +1209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1164,9 +1241,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,6 +1276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1373,251 +1452,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="25"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="25"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="114" customHeight="1">
-      <c r="A4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="9" spans="1:4">
-      <c r="A9" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A10" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="46"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="32" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="26" t="s">
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="34" t="s">
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="35"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="26" t="s">
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="28" t="s">
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75">
-      <c r="A30" s="24" t="s">
+      <c r="D27" s="35"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="33" spans="1:4">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
@@ -1625,56 +1706,78 @@
         <v>17</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="B35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="49"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A34" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="D40" s="21"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -1683,21 +1786,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1709,24 +1797,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
